--- a/data/q_data/summary_table.xlsx
+++ b/data/q_data/summary_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CJ3"/>
+  <dimension ref="A1:FP3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -869,6 +869,426 @@
           <t>after_GAD7_7</t>
         </is>
       </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>b_DES_1</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>b_DES_2</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>b_DES_3</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>b_DES_4</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>b_DES_5</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>b_DES_6</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>b_DES_7</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>b_DES_8</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>b_DES_9</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>b_DES_10</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>b_DES_11</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>b_DES_12</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>b_DES_13</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>b_DES_14</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>b_DES_15</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>b_DES_16</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>b_DES_17</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>b_DES_18</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>b_DES_19</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>b_DES_20</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>b_DES_21</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>b_DES_22</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>b_DES_23</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>b_DES_24</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>b_DES_25</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>b_DES_26</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>b_DES_27</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>b_DES_28</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>t1_DES_1</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>t1_DES_2</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>t1_DES_3</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>t1_DES_4</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>t1_DES_5</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>t1_DES_6</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>t1_DES_7</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>t1_DES_8</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>t1_DES_9</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>t1_DES_10</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>t1_DES_11</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>t1_DES_12</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>t1_DES_13</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>t1_DES_14</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>t1_DES_15</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>t1_DES_16</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>t1_DES_17</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>t1_DES_18</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>t1_DES_19</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>t1_DES_20</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>t1_DES_21</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>t1_DES_22</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>t1_DES_23</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>t1_DES_24</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>t1_DES_25</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>t1_DES_26</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>t1_DES_27</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>t1_DES_28</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>after_DES_1</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>after_DES_2</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>after_DES_3</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>after_DES_4</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>after_DES_5</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>after_DES_6</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>after_DES_7</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>after_DES_8</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>after_DES_9</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>after_DES_10</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>after_DES_11</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>after_DES_12</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>after_DES_13</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>after_DES_14</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>after_DES_15</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>after_DES_16</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>after_DES_17</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>after_DES_18</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>after_DES_19</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>after_DES_20</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>after_DES_21</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>after_DES_22</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>after_DES_23</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>after_DES_24</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>after_DES_25</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
+          <t>after_DES_26</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>after_DES_27</t>
+        </is>
+      </c>
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>after_DES_28</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1137,6 +1557,258 @@
       <c r="CJ2" t="n">
         <v>142</v>
       </c>
+      <c r="CK2" t="n">
+        <v>168</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>168</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>168</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>168</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>168</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>168</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>168</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>168</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>168</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>168</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>168</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>168</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>168</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>168</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>168</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>168</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>168</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>168</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>168</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>168</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>168</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>168</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>168</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>168</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>168</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>168</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>168</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>168</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>143</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>143</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>143</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>143</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>143</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>143</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>143</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>143</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>143</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>143</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>143</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>143</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>143</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>143</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>143</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>143</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>143</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>143</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>143</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>143</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>143</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>143</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>143</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>143</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>143</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>143</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>143</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>143</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>139</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>139</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>139</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>139</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>139</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>139</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>139</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>139</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>139</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>139</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>139</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>139</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>139</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>139</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>139</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>139</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>139</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>139</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>139</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>139</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>139</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>139</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>139</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>139</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>139</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>139</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>139</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1404,6 +2076,258 @@
       </c>
       <c r="CJ3" t="n">
         <v>81.60919540229885</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>96.55172413793103</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>96.55172413793103</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>96.55172413793103</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>96.55172413793103</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>96.55172413793103</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>96.55172413793103</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>96.55172413793103</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>96.55172413793103</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>96.55172413793103</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>96.55172413793103</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>96.55172413793103</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>96.55172413793103</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>96.55172413793103</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>96.55172413793103</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>96.55172413793103</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>96.55172413793103</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>96.55172413793103</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>96.55172413793103</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>96.55172413793103</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>96.55172413793103</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>96.55172413793103</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>96.55172413793103</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>96.55172413793103</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>96.55172413793103</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>96.55172413793103</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>96.55172413793103</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>96.55172413793103</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>96.55172413793103</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>82.18390804597702</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>82.18390804597702</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>82.18390804597702</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>82.18390804597702</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>82.18390804597702</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>82.18390804597702</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>82.18390804597702</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>82.18390804597702</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>82.18390804597702</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>82.18390804597702</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>82.18390804597702</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>82.18390804597702</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>82.18390804597702</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>82.18390804597702</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>82.18390804597702</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>82.18390804597702</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>82.18390804597702</v>
+      </c>
+      <c r="ED3" t="n">
+        <v>82.18390804597702</v>
+      </c>
+      <c r="EE3" t="n">
+        <v>82.18390804597702</v>
+      </c>
+      <c r="EF3" t="n">
+        <v>82.18390804597702</v>
+      </c>
+      <c r="EG3" t="n">
+        <v>82.18390804597702</v>
+      </c>
+      <c r="EH3" t="n">
+        <v>82.18390804597702</v>
+      </c>
+      <c r="EI3" t="n">
+        <v>82.18390804597702</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>82.18390804597702</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>82.18390804597702</v>
+      </c>
+      <c r="EL3" t="n">
+        <v>82.18390804597702</v>
+      </c>
+      <c r="EM3" t="n">
+        <v>82.18390804597702</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>82.18390804597702</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>79.88505747126436</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>79.88505747126436</v>
+      </c>
+      <c r="EQ3" t="n">
+        <v>79.88505747126436</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>79.88505747126436</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>79.88505747126436</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>79.88505747126436</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>79.88505747126436</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>79.88505747126436</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>79.88505747126436</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>79.88505747126436</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>79.88505747126436</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>79.88505747126436</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>79.88505747126436</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>79.88505747126436</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>79.88505747126436</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>79.88505747126436</v>
+      </c>
+      <c r="FE3" t="n">
+        <v>79.88505747126436</v>
+      </c>
+      <c r="FF3" t="n">
+        <v>79.88505747126436</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>79.88505747126436</v>
+      </c>
+      <c r="FH3" t="n">
+        <v>79.88505747126436</v>
+      </c>
+      <c r="FI3" t="n">
+        <v>79.88505747126436</v>
+      </c>
+      <c r="FJ3" t="n">
+        <v>79.88505747126436</v>
+      </c>
+      <c r="FK3" t="n">
+        <v>79.88505747126436</v>
+      </c>
+      <c r="FL3" t="n">
+        <v>79.88505747126436</v>
+      </c>
+      <c r="FM3" t="n">
+        <v>79.88505747126436</v>
+      </c>
+      <c r="FN3" t="n">
+        <v>79.88505747126436</v>
+      </c>
+      <c r="FO3" t="n">
+        <v>79.88505747126436</v>
+      </c>
+      <c r="FP3" t="n">
+        <v>79.88505747126436</v>
       </c>
     </row>
   </sheetData>
